--- a/data/student_surveys.xlsx
+++ b/data/student_surveys.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://novasbe365-my.sharepoint.com/personal/joao_correia_novasbe_pt/Documents/Documentos/AoL2324/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{C079EA2E-15C0-45F2-9061-0A64BAD4E869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B868CF4A-02BC-42F6-8427-E0DE5A5B6990}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{C079EA2E-15C0-45F2-9061-0A64BAD4E869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62002962-837E-48A7-AA1C-508DC022B9D3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F94B2FA-2E72-4A4A-AF3E-9D48E6D0E159}"/>
+    <workbookView minimized="1" xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7270" xr2:uid="{6F94B2FA-2E72-4A4A-AF3E-9D48E6D0E159}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$668</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -442,13 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E19559B-EC71-41D9-A093-C22045F3390E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B522" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A868" sqref="A2:XFD868"/>
+      <selection pane="bottomRight" activeCell="B522" sqref="B522:B668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -479,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -499,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -539,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -559,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -579,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -599,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -619,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -639,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -659,7 +660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -679,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -699,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -719,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -739,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -759,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -779,7 +780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -799,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -819,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -839,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -859,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -879,7 +880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -899,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -919,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -939,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -959,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -979,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>14</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>14</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>14</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>14</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>14</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>14</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>14</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>14</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>14</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>14</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>14</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>14</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>14</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>14</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>14</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>14</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>14</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>14</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>14</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>14</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>14</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>14</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>14</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>14</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>14</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>14</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>14</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>14</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>14</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>14</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>14</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>14</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>15</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>15</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>15</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>15</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>15</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>15</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>15</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>15</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>15</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>15</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>15</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>15</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>15</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>15</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>15</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>15</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>15</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>15</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>15</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>15</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>15</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>15</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>15</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>15</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>15</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>15</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>15</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>15</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>15</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>15</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>15</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>15</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>15</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>15</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>15</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>15</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>15</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>15</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>15</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>15</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>15</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>15</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>15</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>15</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>15</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>15</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>15</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>15</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>15</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>15</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>15</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>15</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>15</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>15</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>15</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>15</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>15</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>15</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>15</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>15</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>15</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>15</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>15</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>15</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>15</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>15</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>15</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>15</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>15</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>15</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>15</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>15</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>15</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>15</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>15</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>15</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>15</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>15</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>15</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>15</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>15</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>15</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>15</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>15</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>15</v>
       </c>
@@ -4619,7 +4620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>15</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>15</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>15</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>15</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>15</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>15</v>
       </c>
@@ -4739,7 +4740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>15</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>15</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>15</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>15</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>15</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>15</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>15</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>15</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>15</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>15</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>15</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>15</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>15</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>15</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>15</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>15</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>15</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>15</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>15</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>15</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>15</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>15</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>15</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>15</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>15</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>15</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>15</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>15</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>15</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>15</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>15</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>15</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>15</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>15</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>15</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>15</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>15</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>15</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>15</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>15</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>15</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>15</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>15</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>15</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>15</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>15</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>15</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>15</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>15</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>15</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>15</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>15</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>15</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>15</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>15</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>15</v>
       </c>
@@ -5859,7 +5860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>15</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>15</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>15</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>15</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>15</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>15</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>15</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>15</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>15</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>15</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>15</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>15</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>15</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>15</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>15</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>15</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>15</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>15</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>15</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>15</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>15</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>15</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>15</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>15</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>15</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>15</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>15</v>
       </c>
@@ -6399,7 +6400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>15</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>15</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>15</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>15</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>15</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>15</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>15</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>15</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>15</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>15</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>15</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>15</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>15</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>15</v>
       </c>
@@ -6679,7 +6680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>15</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>15</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>15</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>15</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>15</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>15</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>15</v>
       </c>
@@ -6819,7 +6820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>15</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>15</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>15</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>15</v>
       </c>
@@ -6899,7 +6900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>15</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>15</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>15</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>15</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>15</v>
       </c>
@@ -6999,7 +7000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>15</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>15</v>
       </c>
@@ -7039,7 +7040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>15</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>15</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>15</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>15</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>15</v>
       </c>
@@ -7139,7 +7140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>15</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>15</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>15</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>15</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>15</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>15</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>15</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>15</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>15</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>15</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>15</v>
       </c>
@@ -7359,7 +7360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>15</v>
       </c>
@@ -7379,7 +7380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>15</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>15</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>16</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>16</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>16</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>16</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>16</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>16</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>16</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>16</v>
       </c>
@@ -7579,7 +7580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>16</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>16</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>16</v>
       </c>
@@ -7639,7 +7640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>16</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>16</v>
       </c>
@@ -7679,7 +7680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>16</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>16</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>16</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>16</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>16</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>16</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>16</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>16</v>
       </c>
@@ -7839,7 +7840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>16</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>16</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>16</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>16</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>16</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>16</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>16</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>16</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>16</v>
       </c>
@@ -8019,7 +8020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>16</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>16</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>16</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>16</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>16</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>16</v>
       </c>
@@ -8139,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>16</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>16</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>16</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>16</v>
       </c>
@@ -8219,7 +8220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>16</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>16</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>16</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>16</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>16</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>16</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>16</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>16</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>16</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>16</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>16</v>
       </c>
@@ -8439,7 +8440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>16</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>16</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>16</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>16</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>16</v>
       </c>
@@ -8539,7 +8540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>16</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>16</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>16</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>16</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>16</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>16</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>16</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>16</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>16</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>16</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>16</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>16</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>16</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>16</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>16</v>
       </c>
@@ -8839,7 +8840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>16</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>16</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>16</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>16</v>
       </c>
@@ -8919,7 +8920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>16</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>16</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>16</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>16</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>16</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>16</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>16</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>16</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>16</v>
       </c>
@@ -9099,7 +9100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>16</v>
       </c>
@@ -9119,7 +9120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>16</v>
       </c>
@@ -9139,7 +9140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>16</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>16</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>16</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>16</v>
       </c>
@@ -9219,7 +9220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>16</v>
       </c>
@@ -9239,7 +9240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>16</v>
       </c>
@@ -9259,7 +9260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>16</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>16</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>16</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>16</v>
       </c>
@@ -9339,7 +9340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>16</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>16</v>
       </c>
@@ -9379,7 +9380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>16</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>16</v>
       </c>
@@ -9419,7 +9420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>16</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>16</v>
       </c>
@@ -9459,7 +9460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>16</v>
       </c>
@@ -9479,7 +9480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>16</v>
       </c>
@@ -9499,7 +9500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>16</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>16</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>16</v>
       </c>
@@ -9559,7 +9560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>16</v>
       </c>
@@ -9579,7 +9580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>16</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>16</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>16</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>16</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>16</v>
       </c>
@@ -9679,7 +9680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>16</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>16</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>16</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>16</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>16</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>16</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>16</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>16</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>16</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>16</v>
       </c>
@@ -9879,7 +9880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>16</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>16</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>16</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>16</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>16</v>
       </c>
@@ -9979,7 +9980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>16</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>16</v>
       </c>
@@ -10019,7 +10020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>16</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>16</v>
       </c>
@@ -10059,7 +10060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>16</v>
       </c>
@@ -10079,7 +10080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>16</v>
       </c>
@@ -10099,7 +10100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>16</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>16</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>16</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>16</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>16</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>16</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>16</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>37</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>37</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>37</v>
       </c>
@@ -10299,7 +10300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>37</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>37</v>
       </c>
@@ -10339,7 +10340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>37</v>
       </c>
@@ -10359,7 +10360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>37</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>37</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>37</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>37</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>37</v>
       </c>
@@ -10459,7 +10460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>37</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>37</v>
       </c>
@@ -10499,7 +10500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>37</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>37</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>37</v>
       </c>
@@ -10559,7 +10560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>37</v>
       </c>
@@ -10579,7 +10580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>37</v>
       </c>
@@ -10599,7 +10600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>37</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>37</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>37</v>
       </c>
@@ -10659,7 +10660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>37</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>37</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>37</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>37</v>
       </c>
@@ -10739,7 +10740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>37</v>
       </c>
@@ -10759,7 +10760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>37</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>37</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>37</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>38</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>39</v>
       </c>
@@ -10859,7 +10860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>39</v>
       </c>
@@ -10925,7 +10926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>27</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>27</v>
       </c>
@@ -10968,7 +10969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>14</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>15</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>15</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>15</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>15</v>
       </c>
@@ -11083,7 +11084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>15</v>
       </c>
@@ -11106,7 +11107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>15</v>
       </c>
@@ -11129,7 +11130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>15</v>
       </c>
@@ -11152,7 +11153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>15</v>
       </c>
@@ -11175,7 +11176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>15</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>15</v>
       </c>
@@ -11221,7 +11222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>15</v>
       </c>
@@ -11244,7 +11245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>16</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>16</v>
       </c>
@@ -11290,7 +11291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>16</v>
       </c>
@@ -11313,7 +11314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>16</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>16</v>
       </c>
@@ -11359,7 +11360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>16</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>16</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>16</v>
       </c>
@@ -11428,7 +11429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>16</v>
       </c>
@@ -11451,7 +11452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>16</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>15</v>
       </c>
@@ -11482,7 +11483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>15</v>
       </c>
@@ -11505,7 +11506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>37</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>37</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>37</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>38</v>
       </c>
@@ -11597,7 +11598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>38</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>39</v>
       </c>
@@ -11643,7 +11644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>1</v>
       </c>
@@ -11666,7 +11667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>1</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>1</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>1</v>
       </c>
@@ -11735,7 +11736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>1</v>
       </c>
@@ -11758,7 +11759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>1</v>
       </c>
@@ -11781,7 +11782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>1</v>
       </c>
@@ -11804,7 +11805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>1</v>
       </c>
@@ -11827,7 +11828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>1</v>
       </c>
@@ -11850,7 +11851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>1</v>
       </c>
@@ -11873,7 +11874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>1</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>1</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>1</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>1</v>
       </c>
@@ -11965,7 +11966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>1</v>
       </c>
@@ -11988,7 +11989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>1</v>
       </c>
@@ -12011,7 +12012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>1</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>1</v>
       </c>
@@ -12057,7 +12058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>1</v>
       </c>
@@ -12080,7 +12081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>1</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>1</v>
       </c>
@@ -12126,7 +12127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>1</v>
       </c>
@@ -12149,7 +12150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>1</v>
       </c>
@@ -12172,7 +12173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>1</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>1</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>1</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>1</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>1</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>1</v>
       </c>
@@ -12307,7 +12308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>1</v>
       </c>
@@ -12330,7 +12331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>1</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>1</v>
       </c>
@@ -12376,7 +12377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>1</v>
       </c>
@@ -12399,7 +12400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>1</v>
       </c>
@@ -12422,7 +12423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>1</v>
       </c>
@@ -12442,7 +12443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>1</v>
       </c>
@@ -12465,7 +12466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>1</v>
       </c>
@@ -12488,7 +12489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>1</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>1</v>
       </c>
@@ -12534,7 +12535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>2</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>2</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>2</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>2</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>2</v>
       </c>
@@ -12649,7 +12650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>2</v>
       </c>
@@ -12672,7 +12673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>2</v>
       </c>
@@ -12695,7 +12696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>2</v>
       </c>
@@ -12718,7 +12719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>2</v>
       </c>
@@ -12741,7 +12742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>2</v>
       </c>
@@ -12764,7 +12765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>2</v>
       </c>
@@ -12787,7 +12788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>2</v>
       </c>
@@ -12810,7 +12811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>2</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>2</v>
       </c>
@@ -12856,7 +12857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>2</v>
       </c>
@@ -12879,7 +12880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>2</v>
       </c>
@@ -12902,7 +12903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>2</v>
       </c>
@@ -12925,7 +12926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>2</v>
       </c>
@@ -12948,7 +12949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>2</v>
       </c>
@@ -12971,7 +12972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>2</v>
       </c>
@@ -12994,7 +12995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>2</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>2</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>2</v>
       </c>
@@ -13063,7 +13064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>2</v>
       </c>
@@ -13086,7 +13087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>2</v>
       </c>
@@ -13109,7 +13110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>2</v>
       </c>
@@ -13132,7 +13133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>2</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>2</v>
       </c>
@@ -13178,7 +13179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>2</v>
       </c>
@@ -13201,7 +13202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>2</v>
       </c>
@@ -13224,7 +13225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>2</v>
       </c>
@@ -13247,7 +13248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>2</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>2</v>
       </c>
@@ -13293,7 +13294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>2</v>
       </c>
@@ -13316,7 +13317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>2</v>
       </c>
@@ -13339,7 +13340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>2</v>
       </c>
@@ -13362,7 +13363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>2</v>
       </c>
@@ -13385,7 +13386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>2</v>
       </c>
@@ -13408,7 +13409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>2</v>
       </c>
@@ -13431,7 +13432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>2</v>
       </c>
@@ -13454,7 +13455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>2</v>
       </c>
@@ -13477,7 +13478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>2</v>
       </c>
@@ -13500,7 +13501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>2</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>2</v>
       </c>
@@ -13546,7 +13547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>2</v>
       </c>
@@ -13569,7 +13570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>2</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>2</v>
       </c>
@@ -13615,7 +13616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>2</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>2</v>
       </c>
@@ -13661,7 +13662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>2</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>2</v>
       </c>
@@ -13707,7 +13708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>2</v>
       </c>
@@ -13730,7 +13731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>2</v>
       </c>
@@ -13750,7 +13751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>2</v>
       </c>
@@ -13773,7 +13774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>2</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>2</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>2</v>
       </c>
@@ -13842,7 +13843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>2</v>
       </c>
@@ -13865,7 +13866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>2</v>
       </c>
@@ -13888,7 +13889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>2</v>
       </c>
@@ -13911,7 +13912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>2</v>
       </c>
@@ -13934,7 +13935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>2</v>
       </c>
@@ -13957,7 +13958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>2</v>
       </c>
@@ -13980,7 +13981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>2</v>
       </c>
@@ -14003,7 +14004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>2</v>
       </c>
@@ -14026,7 +14027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>2</v>
       </c>
@@ -14049,7 +14050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>2</v>
       </c>
@@ -14072,7 +14073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>2</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>2</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>2</v>
       </c>
@@ -14141,7 +14142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>2</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>2</v>
       </c>
@@ -14187,7 +14188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>2</v>
       </c>
@@ -14210,7 +14211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>2</v>
       </c>
@@ -14234,7 +14235,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{9E19559B-EC71-41D9-A093-C22045F3390E}"/>
+  <autoFilter ref="A1:G668" xr:uid="{9E19559B-EC71-41D9-A093-C22045F3390E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="33"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>